--- a/structuremyAppReact.xlsx
+++ b/structuremyAppReact.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12675"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -106,6 +106,119 @@
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Блок-схема: процесс 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="638175" y="695325"/>
+          <a:ext cx="1133475" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Блок-схема: процесс 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="628650" y="1333500"/>
+          <a:ext cx="1133475" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -398,7 +511,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -441,11 +554,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/structuremyAppReact.xlsx
+++ b/structuremyAppReact.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12675" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12675"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
+    <sheet name="App-react" sheetId="1" r:id="rId1"/>
+    <sheet name="Dialogs" sheetId="3" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621" refMode="R1C1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -65,78 +64,38 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>0</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>5</xdr:row>
-          <xdr:rowOff>19050</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>16</xdr:col>
-          <xdr:colOff>447675</xdr:colOff>
-          <xdr:row>35</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="1026" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s1026"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>5</xdr:row>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="Блок-схема: процесс 1"/>
+        <xdr:cNvPr id="158" name="Прямоугольник 157"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="638175" y="695325"/>
-          <a:ext cx="1133475" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="0" y="0"/>
+          <a:ext cx="15754350" cy="7972425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -167,30 +126,3136 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="Блок-схема: процесс 2"/>
+        <xdr:cNvPr id="31" name="Прямоугольник 30"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628650" y="1333500"/>
-          <a:ext cx="1133475" cy="419100"/>
-        </a:xfrm>
-        <a:prstGeom prst="flowChartProcess">
-          <a:avLst/>
-        </a:prstGeom>
+          <a:off x="9867900" y="3286125"/>
+          <a:ext cx="1866900" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UsersContainer.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="28" name="Прямоугольник 27"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7258050" y="4914900"/>
+          <a:ext cx="1866900" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>InfoblockContainer.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Прямоугольник 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4067175" y="3248025"/>
+          <a:ext cx="1866900" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DialogsContainer.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2457450" y="1809750"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>redux-store.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="Прямоугольник 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5524500" y="1504950"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>index.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228600" y="409575"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>contentPageReducer.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="Прямоугольник 9"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1790700" y="419100"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>sidebar-reducer.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3295650" y="419100"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>messagesPageReducer.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4838700" y="438150"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>usersPageReducer.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7639050" y="1685926"/>
+          <a:ext cx="1285875" cy="819150"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>App.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="Прямоугольник 13"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="542925" y="3590925"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Header.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="Прямоугольник 14"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2352675" y="3619500"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Sidebar.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="Прямоугольник 15"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14611350" y="3638550"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Contact.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="Прямоугольник 16"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4543425" y="3714750"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dialogs.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="Прямоугольник 17"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12077700" y="3629025"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Home.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="Прямоугольник 18"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13335000" y="3638550"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Email.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="Прямоугольник 19"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10306050" y="3724275"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Users.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="Прямоугольник 20"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2343150" y="5010150"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Friends.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190501</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="Прямоугольник 21"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3848101" y="4991100"/>
+          <a:ext cx="1028700" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>DialogItem.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="Прямоугольник 22"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7705725" y="5334000"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Infoblock.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="Прямоугольник 23"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486525" y="6829425"/>
+          <a:ext cx="1066800" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Infoperson.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="25" name="Прямоугольник 24"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9010650" y="6838950"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Mypost.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="26" name="Прямоугольник 25"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5105400" y="4991100"/>
+          <a:ext cx="1200150" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>MessageItem.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>395288</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Соединительная линия уступом 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="19" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="10477501" y="309563"/>
+          <a:ext cx="1133474" cy="5524500"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390526</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>452439</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Соединительная линия уступом 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="16" idx="0"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="11232358" y="-211931"/>
+          <a:ext cx="1543049" cy="6157913"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="43" name="Соединительная линия уступом 42"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="18" idx="0"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9970295" y="1050131"/>
+          <a:ext cx="1533524" cy="3624263"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="44" name="Прямоугольник 43"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7686675" y="3848100"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:sysClr val="window" lastClr="FFFFFF"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Content.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Соединительная линия уступом 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="44" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7548563" y="3114676"/>
+          <a:ext cx="1343024" cy="123825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="Соединительная линия уступом 48"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="15" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4995863" y="333376"/>
+          <a:ext cx="1114424" cy="5457825"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>404813</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="51" name="Соединительная линия уступом 50"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="14" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4105276" y="-585786"/>
+          <a:ext cx="1085849" cy="7267575"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>95252</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="57" name="Соединительная линия уступом 56"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="22" idx="0"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="4312445" y="4288632"/>
+          <a:ext cx="752475" cy="652462"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>138114</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>219076</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="59" name="Соединительная линия уступом 58"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="26" idx="0"/>
+          <a:endCxn id="17" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="4983957" y="4269582"/>
+          <a:ext cx="752475" cy="690562"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28577</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357188</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="62" name="Соединительная линия уступом 61"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="6269832" y="1235870"/>
+          <a:ext cx="742949" cy="3281363"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>252413</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="64" name="Соединительная линия уступом 63"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="24" idx="0"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="7112794" y="5765006"/>
+          <a:ext cx="971550" cy="1157288"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>252414</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>338139</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="66" name="Соединительная линия уступом 65"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="25" idx="0"/>
+          <a:endCxn id="23" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="8339139" y="5695950"/>
+          <a:ext cx="981075" cy="1304925"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>376238</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>385763</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="68" name="Соединительная линия уступом 67"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="21" idx="0"/>
+          <a:endCxn id="15" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="2386013" y="4572001"/>
+          <a:ext cx="866775" cy="9525"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>357189</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>28576</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="70" name="Соединительная линия уступом 69"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="0"/>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="9151145" y="1635920"/>
+          <a:ext cx="781049" cy="2519362"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>166688</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="72" name="Соединительная линия уступом 71"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="8" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3400425" y="1766888"/>
+          <a:ext cx="2124075" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>52388</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="74" name="Соединительная линия уступом 73"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="8" idx="3"/>
+          <a:endCxn id="13" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6467475" y="1766888"/>
+          <a:ext cx="1171575" cy="328613"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490538</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="76" name="Соединительная линия уступом 75"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="9" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="1376363" y="257175"/>
+          <a:ext cx="876300" cy="2228850"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490539</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="78" name="Соединительная линия уступом 77"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="10" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipH="1">
+          <a:off x="2162176" y="1042987"/>
+          <a:ext cx="866775" cy="666750"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490539</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109539</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="80" name="Соединительная линия уступом 79"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="2914651" y="957262"/>
+          <a:ext cx="866775" cy="838200"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490539</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>433389</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="82" name="Соединительная линия уступом 81"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="3695701" y="195262"/>
+          <a:ext cx="847725" cy="2381250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>109538</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="84" name="Соединительная линия уступом 83"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="27" idx="0"/>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="3231357" y="1478756"/>
+          <a:ext cx="2305050" cy="1233487"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>295276</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="86" name="Соединительная линия уступом 85"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="31" idx="0"/>
+          <a:endCxn id="12" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="6998495" y="-516731"/>
+          <a:ext cx="2586037" cy="5019675"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>233364</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266701</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="88" name="Соединительная линия уступом 87"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="44" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="7903370" y="4626769"/>
+          <a:ext cx="542925" cy="33337"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>90488</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="90" name="Соединительная линия уступом 89"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="28" idx="0"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="2455069" y="-821531"/>
+          <a:ext cx="3981450" cy="7491412"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="91" name="Скругленный прямоугольник 90"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8915400" y="5210175"/>
+          <a:ext cx="952500" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dispatch</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="92" name="Скругленный прямоугольник 91"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8934450" y="5724525"/>
+          <a:ext cx="952500" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>action</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="93" name="Скругленный прямоугольник 92"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="3609975"/>
+          <a:ext cx="952500" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dispatch</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="95" name="Скругленный прямоугольник 94"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9191625" y="4067175"/>
+          <a:ext cx="952500" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>action</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="96" name="Скругленный прямоугольник 95"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5610225" y="4095750"/>
+          <a:ext cx="952500" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>action</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="97" name="Скругленный прямоугольник 96"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5619750" y="3476625"/>
+          <a:ext cx="952500" cy="295275"/>
+        </a:xfrm>
+        <a:prstGeom prst="roundRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>dispatch</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Прямоугольник 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="18040350" cy="12734925"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent6">
+            <a:lumMod val="40000"/>
+            <a:lumOff val="60000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="2">
@@ -214,6 +3279,931 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542925</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Прямоугольник 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7248525" y="4333875"/>
+          <a:ext cx="5562600" cy="3248025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>DialogsContainer.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Прямоугольник 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9172575" y="5343525"/>
+          <a:ext cx="2076450" cy="1181099"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dialogs.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>257174</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>104776</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Прямоугольник 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12001500" y="6677026"/>
+          <a:ext cx="1666874" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Action</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Прямоугольник 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11982450" y="4800600"/>
+          <a:ext cx="1666874" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Dispatch</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="Прямоугольник 8"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="352425" y="2419350"/>
+          <a:ext cx="2133600" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>messagesPageReducer.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Прямоугольник 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="390525" y="200025"/>
+          <a:ext cx="2124074" cy="771525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>redux-store.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="Прямоугольник 11"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9086850" y="209549"/>
+          <a:ext cx="2133600" cy="714375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>index.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Прямоугольник 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9058275" y="2524125"/>
+          <a:ext cx="2152650" cy="685800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400"/>
+            <a:t>App.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>200026</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Соединительная линия уступом 14"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="5" idx="1"/>
+          <a:endCxn id="9" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="1419226" y="3190875"/>
+          <a:ext cx="10563225" cy="1862138"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>47626</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>138113</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>419101</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>57151</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="Соединительная линия уступом 16"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="1"/>
+          <a:endCxn id="9" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="10800000">
+          <a:off x="2486026" y="2805113"/>
+          <a:ext cx="9515475" cy="4110038"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>233362</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Соединительная линия уступом 18"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="11" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="716756" y="1664494"/>
+          <a:ext cx="1428750" cy="42862"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>14288</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="Соединительная линия уступом 20"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="12" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="2514599" y="566737"/>
+          <a:ext cx="6572251" cy="19051"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>161923</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="23" name="Соединительная линия уступом 22"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="12" idx="2"/>
+          <a:endCxn id="13" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9344025" y="1714499"/>
+          <a:ext cx="1600201" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>285751</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381001</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Соединительная линия уступом 25"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="13" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000" flipH="1" flipV="1">
+          <a:off x="9539288" y="3709988"/>
+          <a:ext cx="1095375" cy="95250"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>47624</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="27" name="Прямоугольник 26"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10420349" y="619124"/>
+          <a:ext cx="1857375" cy="723901"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>через </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Provider</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> - </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>передаем</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> store,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  нашим  компонентам</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1200">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -508,45 +4498,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
-  <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId3">
-          <objectPr defaultSize="0" autoPict="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>0</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>5</xdr:row>
-                <xdr:rowOff>19050</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>16</xdr:col>
-                <xdr:colOff>447675</xdr:colOff>
-                <xdr:row>35</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="1026" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
-  </oleObjects>
+  <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -554,8 +4520,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -563,16 +4529,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/structuremyAppReact.xlsx
+++ b/structuremyAppReact.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\firstReactApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12675"/>
+    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12672" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="App-react" sheetId="1" r:id="rId1"/>
@@ -15,7 +20,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -58,6 +63,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -562,7 +570,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
@@ -579,8 +587,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3295650" y="419100"/>
-          <a:ext cx="942975" cy="523875"/>
+          <a:off x="3192780" y="403860"/>
+          <a:ext cx="1045845" cy="508635"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -622,8 +630,8 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
@@ -640,8 +648,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4838700" y="438150"/>
-          <a:ext cx="942975" cy="523875"/>
+          <a:off x="4960620" y="422910"/>
+          <a:ext cx="821055" cy="501015"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2567,13 +2575,13 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>490539</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>180974</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>109539</xdr:colOff>
+      <xdr:colOff>58104</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -2585,8 +2593,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="2914651" y="957262"/>
-          <a:ext cx="866775" cy="838200"/>
+          <a:off x="2907984" y="933450"/>
+          <a:ext cx="828675" cy="786765"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2621,7 +2629,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>433389</xdr:colOff>
+      <xdr:colOff>494349</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
@@ -2635,8 +2643,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="3695701" y="195262"/>
-          <a:ext cx="847725" cy="2381250"/>
+          <a:off x="3741421" y="111442"/>
+          <a:ext cx="817245" cy="2442210"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2665,7 +2673,7 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>109538</xdr:colOff>
+      <xdr:colOff>58103</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
@@ -2685,8 +2693,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="3231357" y="1478756"/>
-          <a:ext cx="2305050" cy="1233487"/>
+          <a:off x="3255169" y="1373029"/>
+          <a:ext cx="2205990" cy="1284922"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
           <a:avLst/>
@@ -2720,7 +2728,7 @@
       <xdr:col>9</xdr:col>
       <xdr:colOff>295276</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>128588</xdr:rowOff>
+      <xdr:rowOff>124778</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
@@ -2738,8 +2746,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="6998495" y="-516731"/>
-          <a:ext cx="2586037" cy="5019675"/>
+          <a:off x="7049930" y="-594836"/>
+          <a:ext cx="2483167" cy="5019675"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -4255,7 +4263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4290,7 +4298,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4504,11 +4512,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -4520,11 +4528,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/structuremyAppReact.xlsx
+++ b/structuremyAppReact.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\firstReactApp\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="120" yWindow="48" windowWidth="28620" windowHeight="12672" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12675" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="App-react" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4263,7 +4258,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4298,7 +4293,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4512,11 +4507,11 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" r:id="rId1"/>
@@ -4528,11 +4523,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/structuremyAppReact.xlsx
+++ b/structuremyAppReact.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12675" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="45" windowWidth="28620" windowHeight="12675"/>
   </bookViews>
   <sheets>
     <sheet name="App-react" sheetId="1" r:id="rId1"/>
@@ -72,13 +72,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -87,8 +87,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="0"/>
-          <a:ext cx="15754350" cy="7972425"/>
+          <a:off x="0" y="19050"/>
+          <a:ext cx="16421100" cy="7972425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4507,7 +4507,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
@@ -4523,7 +4523,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="Q48" sqref="Q48"/>
     </sheetView>
   </sheetViews>

--- a/structuremyAppReact.xlsx
+++ b/structuremyAppReact.xlsx
@@ -70,15 +70,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>26</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -87,7 +87,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="0" y="19050"/>
+          <a:off x="28575" y="0"/>
           <a:ext cx="16421100" cy="7972425"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -129,32 +129,34 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Прямоугольник 30"/>
+        <xdr:cNvPr id="75" name="Прямоугольник 74"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9867900" y="3286125"/>
-          <a:ext cx="1866900" cy="1314450"/>
+          <a:off x="6677025" y="4514850"/>
+          <a:ext cx="2952750" cy="2105025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
         <a:solidFill>
-          <a:schemeClr val="tx1"/>
+          <a:schemeClr val="accent2">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
         </a:solidFill>
       </xdr:spPr>
       <xdr:style>
@@ -181,10 +183,231 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100">
               <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>connect</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:lumMod val="60000"/>
+                <a:lumOff val="40000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="69" name="Прямоугольник 68"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9725025" y="3067050"/>
+          <a:ext cx="2219325" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>connect</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371474</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="Прямоугольник 66"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7077074" y="4695824"/>
+          <a:ext cx="2219325" cy="1800225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="7030A0"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>withRouter</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>352425</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>390525</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="56" name="Прямоугольник 55"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14373225" y="3257550"/>
+          <a:ext cx="1866900" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
                 <a:schemeClr val="bg1"/>
               </a:solidFill>
             </a:rPr>
-            <a:t>UsersContainer.jsx</a:t>
+            <a:t>С</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>ontactContainer.jsx</a:t>
           </a:r>
           <a:endParaRPr lang="ru-RU" sz="1100">
             <a:solidFill>
@@ -198,6 +421,75 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="Прямоугольник 30"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9867900" y="3286125"/>
+          <a:ext cx="1866900" cy="1314450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="bg1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>UsersContainer.jsx</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100">
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>11</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
       <xdr:row>25</xdr:row>
@@ -885,16 +1177,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:colOff>533400</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -903,7 +1195,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="14611350" y="3638550"/>
+          <a:off x="14830425" y="3619500"/>
           <a:ext cx="942975" cy="523875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1700,10 +1992,10 @@
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>452439</xdr:colOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>61914</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -1715,8 +2007,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="11232358" y="-211931"/>
-          <a:ext cx="1543049" cy="6157913"/>
+          <a:off x="11351420" y="-330993"/>
+          <a:ext cx="1523999" cy="6376988"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector2">
           <a:avLst/>
@@ -2876,16 +3168,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2894,7 +3186,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8915400" y="5210175"/>
+          <a:off x="9420225" y="5124450"/>
           <a:ext cx="952500" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2934,16 +3226,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2952,7 +3244,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8934450" y="5724525"/>
+          <a:off x="9410700" y="5953125"/>
           <a:ext cx="952500" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -2992,16 +3284,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3010,7 +3302,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9191625" y="3609975"/>
+          <a:off x="11572875" y="4676775"/>
           <a:ext cx="952500" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3050,16 +3342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3068,7 +3360,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9191625" y="4067175"/>
+          <a:off x="11563350" y="2943225"/>
           <a:ext cx="952500" cy="295275"/>
         </a:xfrm>
         <a:prstGeom prst="roundRect">
@@ -3220,6 +3512,438 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="63" name="Прямоугольник 62"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11268075" y="438150"/>
+          <a:ext cx="942975" cy="523875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="00B050"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>contact-reducer.js</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>128588</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Соединительная линия уступом 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="56" idx="0"/>
+          <a:endCxn id="63" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000" flipV="1">
+          <a:off x="12480132" y="431006"/>
+          <a:ext cx="2557462" cy="3095625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+        <a:effectLst>
+          <a:reflection endPos="31000" dist="50800" dir="5400000" sy="-100000" algn="bl" rotWithShape="0"/>
+        </a:effectLst>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>490539</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>157164</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Соединительная линия уступом 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="63" idx="2"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6910389" y="-3019425"/>
+          <a:ext cx="847725" cy="8810625"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="30" name="Овал 29"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4962525" y="5876925"/>
+          <a:ext cx="990600" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AJAX-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>запрос</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>321655</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92782</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Прямая со стрелкой 32"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="30" idx="7"/>
+          <a:endCxn id="28" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5808055" y="5572125"/>
+          <a:ext cx="1449995" cy="426157"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="79" name="Овал 78"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="11239500" y="5457825"/>
+          <a:ext cx="990600" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="20000"/>
+            <a:lumOff val="80000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>A</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>AJAX-</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>запрос</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="37" name="Прямая со стрелкой 36"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="79" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="10801350" y="4629150"/>
+          <a:ext cx="933450" cy="828675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -4507,7 +5231,7 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>

--- a/structuremyAppReact.xlsx
+++ b/structuremyAppReact.xlsx
@@ -2086,75 +2086,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Прямоугольник 43"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7686675" y="3848100"/>
-          <a:ext cx="942975" cy="523875"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:sysClr val="window" lastClr="FFFFFF"/>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Content.jsx</a:t>
-          </a:r>
-          <a:endParaRPr lang="ru-RU" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>13</xdr:col>
       <xdr:colOff>233362</xdr:colOff>
       <xdr:row>13</xdr:row>
@@ -2170,7 +2101,6 @@
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="46" name="Соединительная линия уступом 45"/>
         <xdr:cNvCxnSpPr>
-          <a:stCxn id="44" idx="0"/>
           <a:endCxn id="13" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
@@ -3081,7 +3011,6 @@
         <xdr:cNvPr id="88" name="Соединительная линия уступом 87"/>
         <xdr:cNvCxnSpPr>
           <a:stCxn id="28" idx="0"/>
-          <a:endCxn id="44" idx="2"/>
         </xdr:cNvCxnSpPr>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -3116,27 +3045,24 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>90488</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>71438</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
         <xdr:cNvPr id="90" name="Соединительная линия уступом 89"/>
-        <xdr:cNvCxnSpPr>
-          <a:stCxn id="28" idx="0"/>
-          <a:endCxn id="9" idx="2"/>
-        </xdr:cNvCxnSpPr>
+        <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm rot="16200000" flipV="1">
-          <a:off x="2455069" y="-821531"/>
+          <a:off x="2436019" y="-726281"/>
           <a:ext cx="3981450" cy="7491412"/>
         </a:xfrm>
         <a:prstGeom prst="bentConnector3">
